--- a/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.2_KS_Holdout_seed_999/metrics/Trial_355__Reeval_Sobol_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.2_KS_Holdout_seed_999/metrics/Trial_355__Reeval_Sobol_Modell_1.2.xlsx
@@ -6118,13 +6118,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="103"/>
                 <c:pt idx="0">
-                  <c:v>1.430113196372986</c:v>
+                  <c:v>1.430119037628174</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>95.12122344970703</c:v>
+                  <c:v>95.1212158203125</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.978734254837036</c:v>
+                  <c:v>2.978731393814087</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>3.805791854858398</c:v>
@@ -6133,154 +6133,154 @@
                   <c:v>93.77775573730469</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>72.29290008544922</c:v>
+                  <c:v>72.29292297363281</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>96.96340179443359</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.513823926448822</c:v>
+                  <c:v>0.513818085193634</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.036093711853027</c:v>
+                  <c:v>1.036099553108215</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45.72034454345703</c:v>
+                  <c:v>45.72031784057617</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>66.41935729980469</c:v>
+                  <c:v>66.41934967041016</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>94.243408203125</c:v>
+                  <c:v>94.24341583251953</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-6.920605182647705</c:v>
+                  <c:v>-6.920569896697998</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>96.39604949951172</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.4114783704280853</c:v>
+                  <c:v>0.4114812910556793</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>19.31939315795898</c:v>
+                  <c:v>19.31937026977539</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>1.224513649940491</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>96.16236877441406</c:v>
+                  <c:v>96.16236114501953</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>70.48480987548828</c:v>
+                  <c:v>70.48480224609375</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.639210939407349</c:v>
+                  <c:v>2.639216899871826</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>93.23783874511719</c:v>
+                  <c:v>93.23785400390625</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>98.06074523925781</c:v>
+                  <c:v>98.06072998046875</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>94.248779296875</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>94.69466400146484</c:v>
+                  <c:v>94.69464874267578</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.9661905765533447</c:v>
+                  <c:v>0.9661876559257507</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>90.94814300537109</c:v>
+                  <c:v>90.94813537597656</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>81.18343353271484</c:v>
+                  <c:v>81.18344116210938</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>83.72179412841797</c:v>
+                  <c:v>83.72182464599609</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.824276685714722</c:v>
+                  <c:v>1.824294328689575</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>33.31777572631836</c:v>
+                  <c:v>33.31781387329102</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>11.55616188049316</c:v>
+                  <c:v>11.55614185333252</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.234243988990784</c:v>
+                  <c:v>1.234246969223022</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-0.6000365018844604</c:v>
+                  <c:v>-0.6000335216522217</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.7313116192817688</c:v>
+                  <c:v>0.7313057780265808</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.5336551666259766</c:v>
+                  <c:v>0.5336434245109558</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>95.92288208007812</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>8.094015121459961</c:v>
+                  <c:v>8.093985557556152</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>0.8287273645401001</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-0.2726952135562897</c:v>
+                  <c:v>-0.2726805210113525</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>98.48340606689453</c:v>
+                  <c:v>98.48339080810547</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>71.79640960693359</c:v>
+                  <c:v>71.79643249511719</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>88.08164215087891</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.5812106728553772</c:v>
+                  <c:v>0.5812224149703979</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>78.61869049072266</c:v>
+                  <c:v>78.61868286132812</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>-14.15339660644531</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.5597332119941711</c:v>
+                  <c:v>0.5597508549690247</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.8625838756561279</c:v>
+                  <c:v>0.8625779747962952</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>97.23058319091797</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.5639604926109314</c:v>
+                  <c:v>0.5639575719833374</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>96.75534057617188</c:v>
+                  <c:v>96.75533294677734</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.367544651031494</c:v>
+                  <c:v>1.367576956748962</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>34.03033447265625</c:v>
+                  <c:v>34.03039169311523</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>75.11712646484375</c:v>
+                  <c:v>75.11711883544922</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-8.679996490478516</c:v>
+                  <c:v>-8.680007934570312</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>85.8929443359375</c:v>
+                  <c:v>85.89295959472656</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>35.41544723510742</c:v>
@@ -6289,43 +6289,43 @@
                   <c:v>92.93946838378906</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.855854868888855</c:v>
+                  <c:v>0.8558372259140015</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>48.91467666625977</c:v>
+                  <c:v>48.91465377807617</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>85.16736602783203</c:v>
+                  <c:v>85.16738128662109</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>0.7598119974136353</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.09470237791538239</c:v>
+                  <c:v>0.0947200134396553</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>91.43613433837891</c:v>
+                  <c:v>91.43612670898438</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>17.57069969177246</c:v>
+                  <c:v>17.5706729888916</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>94.48335266113281</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.5621026158332825</c:v>
+                  <c:v>0.5621085166931152</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-0.078301802277565</c:v>
+                  <c:v>-0.07830473780632019</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.9546581506729126</c:v>
+                  <c:v>0.9546522498130798</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>88.25724792480469</c:v>
+                  <c:v>88.25726318359375</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>74.70378875732422</c:v>
+                  <c:v>74.70378112792969</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>97.87175750732422</c:v>
@@ -6337,13 +6337,13 @@
                   <c:v>94.64459228515625</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>12.07879638671875</c:v>
+                  <c:v>12.07879066467285</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>94.93074035644531</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>28.9422721862793</c:v>
+                  <c:v>28.94225692749023</c:v>
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>97.99252319335938</c:v>
@@ -6352,16 +6352,16 @@
                   <c:v>94.53764343261719</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>93.60892486572266</c:v>
+                  <c:v>93.60891723632812</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>98.15444946289062</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>5.960858345031738</c:v>
+                  <c:v>5.960864067077637</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.116397380828857</c:v>
+                  <c:v>1.116394400596619</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>0.7687928080558777</c:v>
@@ -6376,13 +6376,13 @@
                   <c:v>94.0640869140625</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.9346328973770142</c:v>
+                  <c:v>0.9346446990966797</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.7203494906425476</c:v>
+                  <c:v>0.7203583121299744</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-1.267771244049072</c:v>
+                  <c:v>-1.267759561538696</c:v>
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>91.57999420166016</c:v>
@@ -6391,19 +6391,19 @@
                   <c:v>96.23562622070312</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1.070235252380371</c:v>
+                  <c:v>1.070229411125183</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>60.19947814941406</c:v>
+                  <c:v>60.19948577880859</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>94.20713806152344</c:v>
+                  <c:v>94.20713043212891</c:v>
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>14.44697570800781</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>20.65422821044922</c:v>
+                  <c:v>20.6541919708252</c:v>
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>92.45138549804688</c:v>
@@ -6412,7 +6412,7 @@
                   <c:v>96.54877471923828</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>2.313001394271851</c:v>
+                  <c:v>2.312978029251099</c:v>
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>94.67996215820312</c:v>
@@ -6421,7 +6421,7 @@
                   <c:v>0.7946298122406006</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.1376572400331497</c:v>
+                  <c:v>0.1376513689756393</c:v>
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>89.89828491210938</c:v>
@@ -7119,7 +7119,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.430113196372986</v>
+        <v>1.430119037628174</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -7151,7 +7151,7 @@
         <v>87.86960000000001</v>
       </c>
       <c r="F3">
-        <v>95.12122344970703</v>
+        <v>95.1212158203125</v>
       </c>
       <c r="G3">
         <v>107</v>
@@ -7183,7 +7183,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.978734254837036</v>
+        <v>2.978731393814087</v>
       </c>
       <c r="G4">
         <v>107</v>
@@ -7279,7 +7279,7 @@
         <v>84.02330000000001</v>
       </c>
       <c r="F7">
-        <v>72.29290008544922</v>
+        <v>72.29292297363281</v>
       </c>
       <c r="G7">
         <v>107</v>
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.513823926448822</v>
+        <v>0.513818085193634</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -7351,7 +7351,7 @@
         <v>34.1367</v>
       </c>
       <c r="F10">
-        <v>1.036093711853027</v>
+        <v>1.036099553108215</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -7371,7 +7371,7 @@
         <v>53.3608</v>
       </c>
       <c r="F11">
-        <v>45.72034454345703</v>
+        <v>45.72031784057617</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -7391,7 +7391,7 @@
         <v>70.80159999999999</v>
       </c>
       <c r="F12">
-        <v>66.41935729980469</v>
+        <v>66.41934967041016</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7411,7 +7411,7 @@
         <v>84.36620000000001</v>
       </c>
       <c r="F13">
-        <v>94.243408203125</v>
+        <v>94.24341583251953</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -7431,7 +7431,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>-6.920605182647705</v>
+        <v>-6.920569896697998</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7471,7 +7471,7 @@
         <v>43.5746</v>
       </c>
       <c r="F16">
-        <v>0.4114783704280853</v>
+        <v>0.4114812910556793</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>26.9346</v>
       </c>
       <c r="F17">
-        <v>19.31939315795898</v>
+        <v>19.31937026977539</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>95.9807</v>
       </c>
       <c r="F19">
-        <v>96.16236877441406</v>
+        <v>96.16236114501953</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>34.9115</v>
       </c>
       <c r="F20">
-        <v>70.48480987548828</v>
+        <v>70.48480224609375</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.639210939407349</v>
+        <v>2.639216899871826</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>91.50530000000001</v>
       </c>
       <c r="F22">
-        <v>93.23783874511719</v>
+        <v>93.23785400390625</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>98.18859999999999</v>
       </c>
       <c r="F23">
-        <v>98.06074523925781</v>
+        <v>98.06072998046875</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>92.36799999999999</v>
       </c>
       <c r="F25">
-        <v>94.69466400146484</v>
+        <v>94.69464874267578</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>0.9661905765533447</v>
+        <v>0.9661876559257507</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>88.40260000000001</v>
       </c>
       <c r="F27">
-        <v>90.94814300537109</v>
+        <v>90.94813537597656</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>93.2831</v>
       </c>
       <c r="F28">
-        <v>81.18343353271484</v>
+        <v>81.18344116210938</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>69.5461</v>
       </c>
       <c r="F29">
-        <v>83.72179412841797</v>
+        <v>83.72182464599609</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.824276685714722</v>
+        <v>1.824294328689575</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>33.31777572631836</v>
+        <v>33.31781387329102</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>35.561</v>
       </c>
       <c r="F32">
-        <v>11.55616188049316</v>
+        <v>11.55614185333252</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.234243988990784</v>
+        <v>1.234246969223022</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>-0.6000365018844604</v>
+        <v>-0.6000335216522217</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>0.7313116192817688</v>
+        <v>0.7313057780265808</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>0.5336551666259766</v>
+        <v>0.5336434245109558</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>8.094015121459961</v>
+        <v>8.093985557556152</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>-0.2726952135562897</v>
+        <v>-0.2726805210113525</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>81.7872</v>
       </c>
       <c r="F41">
-        <v>98.48340606689453</v>
+        <v>98.48339080810547</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>56.5406</v>
       </c>
       <c r="F42">
-        <v>71.79640960693359</v>
+        <v>71.79643249511719</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>0.5812106728553772</v>
+        <v>0.5812224149703979</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>78.61869049072266</v>
+        <v>78.61868286132812</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>0.5597332119941711</v>
+        <v>0.5597508549690247</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>0.8625838756561279</v>
+        <v>0.8625779747962952</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>0.5639604926109314</v>
+        <v>0.5639575719833374</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>94.2983</v>
       </c>
       <c r="F51">
-        <v>96.75534057617188</v>
+        <v>96.75533294677734</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>47.7787</v>
       </c>
       <c r="F52">
-        <v>1.367544651031494</v>
+        <v>1.367576956748962</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>44.5448</v>
       </c>
       <c r="F53">
-        <v>34.03033447265625</v>
+        <v>34.03039169311523</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>97.72280000000001</v>
       </c>
       <c r="F54">
-        <v>75.11712646484375</v>
+        <v>75.11711883544922</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -8251,7 +8251,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>-8.679996490478516</v>
+        <v>-8.680007934570312</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8271,7 +8271,7 @@
         <v>42.5481</v>
       </c>
       <c r="F56">
-        <v>85.8929443359375</v>
+        <v>85.89295959472656</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8331,7 +8331,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>0.855854868888855</v>
+        <v>0.8558372259140015</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8351,7 +8351,7 @@
         <v>34.2752</v>
       </c>
       <c r="F60">
-        <v>48.91467666625977</v>
+        <v>48.91465377807617</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -8371,7 +8371,7 @@
         <v>56.4807</v>
       </c>
       <c r="F61">
-        <v>85.16736602783203</v>
+        <v>85.16738128662109</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>0.09470237791538239</v>
+        <v>0.0947200134396553</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -8431,7 +8431,7 @@
         <v>97.37220000000001</v>
       </c>
       <c r="F64">
-        <v>91.43613433837891</v>
+        <v>91.43612670898438</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -8451,7 +8451,7 @@
         <v>31.0072</v>
       </c>
       <c r="F65">
-        <v>17.57069969177246</v>
+        <v>17.5706729888916</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8491,7 +8491,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>0.5621026158332825</v>
+        <v>0.5621085166931152</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -8511,7 +8511,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>-0.078301802277565</v>
+        <v>-0.07830473780632019</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8531,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>0.9546581506729126</v>
+        <v>0.9546522498130798</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8551,7 +8551,7 @@
         <v>57.4947</v>
       </c>
       <c r="F70">
-        <v>88.25724792480469</v>
+        <v>88.25726318359375</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8571,7 +8571,7 @@
         <v>94.7551</v>
       </c>
       <c r="F71">
-        <v>74.70378875732422</v>
+        <v>74.70378112792969</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -8651,7 +8651,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>12.07879638671875</v>
+        <v>12.07879066467285</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8691,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>28.9422721862793</v>
+        <v>28.94225692749023</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8751,7 +8751,7 @@
         <v>90.54819999999999</v>
       </c>
       <c r="F80">
-        <v>93.60892486572266</v>
+        <v>93.60891723632812</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8791,7 +8791,7 @@
         <v>59.3491</v>
       </c>
       <c r="F82">
-        <v>5.960858345031738</v>
+        <v>5.960864067077637</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8811,7 +8811,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.116397380828857</v>
+        <v>1.116394400596619</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8911,7 +8911,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>0.9346328973770142</v>
+        <v>0.9346446990966797</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8931,7 +8931,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>0.7203494906425476</v>
+        <v>0.7203583121299744</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -8951,7 +8951,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>-1.267771244049072</v>
+        <v>-1.267759561538696</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -9011,7 +9011,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.070235252380371</v>
+        <v>1.070229411125183</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -9031,7 +9031,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>60.19947814941406</v>
+        <v>60.19948577880859</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -9051,7 +9051,7 @@
         <v>93.8582</v>
       </c>
       <c r="F95">
-        <v>94.20713806152344</v>
+        <v>94.20713043212891</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -9091,7 +9091,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>20.65422821044922</v>
+        <v>20.6541919708252</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -9151,7 +9151,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>2.313001394271851</v>
+        <v>2.312978029251099</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -9211,7 +9211,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>0.1376572400331497</v>
+        <v>0.1376513689756393</v>
       </c>
     </row>
     <row r="104" spans="1:6">
